--- a/public/fav_seeds.xlsx
+++ b/public/fav_seeds.xlsx
@@ -29,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,12 +114,12 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -182,7 +183,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -230,7 +231,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
